--- a/results/exp6.xlsx
+++ b/results/exp6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam Fragkiadakis\Workspace\liver-baseline-registration\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16598FC5-DB95-4509-918D-B40B4412BFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03289277-3AA8-48CC-B7A8-1ECE19D60492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="1545" windowWidth="16515" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9795" yWindow="4185" windowWidth="16515" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="liver" sheetId="1" r:id="rId1"/>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" activeCellId="1" sqref="D14 C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
